--- a/Employee_Reports35/Nishan Ekanayake Ekanayake Mudiyanselage Q0574.xlsx
+++ b/Employee_Reports35/Nishan Ekanayake Ekanayake Mudiyanselage Q0574.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -46,12 +46,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFACD"/>
-        <bgColor rgb="00FFFACD"/>
       </patternFill>
     </fill>
     <fill>
@@ -79,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -91,9 +85,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +469,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -581,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1316,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1331,90 +1322,90 @@
       <c r="K18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>LOTO (SOPs)</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>LSME-OHS-SOP-021</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>10-Dec-2024</t>
-        </is>
-      </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>10-Dec-2025</t>
-        </is>
-      </c>
-      <c r="H19" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="I19" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>EXPIRING SOON</t>
-        </is>
-      </c>
-      <c r="K19" s="4" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>21-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>21-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>321</v>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Endangered by Electricity A safety Training (SOPs)</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>28-Jul-2024</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>28-Jul-2025</t>
         </is>
       </c>
-      <c r="H20" s="5" t="n">
-        <v>-98</v>
-      </c>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="H20" s="4" t="n">
+        <v>-99</v>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K20" s="5" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -1439,11 +1430,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1459,36 +1450,85 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
+          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-001</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>27-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>27-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>265</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr"/>
+      <c r="D23" s="3" t="inlineStr"/>
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr">
         <is>
           <t>25-Aug-2024</t>
         </is>
       </c>
-      <c r="G22" s="3" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>25-Aug-2026</t>
         </is>
       </c>
-      <c r="H22" s="3" t="n">
-        <v>295</v>
-      </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr"/>
+      <c r="H23" s="3" t="n">
+        <v>294</v>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1624,35 +1664,35 @@
       <c r="G4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Consignment Shuttle Tv</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>31-Aug-2024</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>62.50%</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>low percentage</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>This is a low mark, please retake the exam and improve your score. date is valid</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n"/>
+      <c r="G5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">

--- a/Employee_Reports35/Nishan Ekanayake Ekanayake Mudiyanselage Q0574.xlsx
+++ b/Employee_Reports35/Nishan Ekanayake Ekanayake Mudiyanselage Q0574.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1393,11 +1393,11 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1430,11 +1430,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1479,11 +1479,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1516,11 +1516,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
